--- a/data-raw/dictionary.xlsx
+++ b/data-raw/dictionary.xlsx
@@ -1,94 +1,137 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Malawi_project\Phase 2\wastecollectionblantyre\data-raw\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36FC5506-2FB3-4886-BF1C-ABC95B30610F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="28680" yWindow="-10290" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
-  <si>
-    <t xml:space="preserve">directory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">file_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">variable_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">variable_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vehicles.rda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">character</t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">brand_model</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">capacity_tons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">double</t>
-  </si>
-  <si>
-    <t xml:space="preserve">capacity_m3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">capacity_estimate_m3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skip_level.rda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date_time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name_contact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skip_number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">filename</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="35">
+  <si>
+    <t>directory</t>
+  </si>
+  <si>
+    <t>file_name</t>
+  </si>
+  <si>
+    <t>variable_name</t>
+  </si>
+  <si>
+    <t>variable_type</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>data/</t>
+  </si>
+  <si>
+    <t>vehicles.rda</t>
+  </si>
+  <si>
+    <t>plate</t>
+  </si>
+  <si>
+    <t>character</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>brand_model</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>capacity_tons</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>capacity_m3</t>
+  </si>
+  <si>
+    <t>capacity_estimate_m3</t>
+  </si>
+  <si>
+    <t>skip_level.rda</t>
+  </si>
+  <si>
+    <t>date_time</t>
+  </si>
+  <si>
+    <t>name_contact</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>skip_number</t>
+  </si>
+  <si>
+    <t>filename</t>
+  </si>
+  <si>
+    <t>License plate of vehicle.</t>
+  </si>
+  <si>
+    <t>Brand and model information.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type of collection vehicle. </t>
+  </si>
+  <si>
+    <t>Nameplate ton capacity.</t>
+  </si>
+  <si>
+    <t>Nameplate cubic meter capacity.</t>
+  </si>
+  <si>
+    <t>Estimated cubic meter capacity.</t>
+  </si>
+  <si>
+    <t>Date and time of image.</t>
+  </si>
+  <si>
+    <t>Name of skip location.</t>
+  </si>
+  <si>
+    <t>Assessed level.</t>
+  </si>
+  <si>
+    <t>Designation of skip when more than one is present at a location.</t>
+  </si>
+  <si>
+    <t>Name of picture file of the record.</t>
+  </si>
+  <si>
+    <t>Name of skip location matching wasteskipsblantyre.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -124,6 +167,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -405,14 +457,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -429,7 +483,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -443,10 +497,10 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -460,10 +514,10 @@
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -477,10 +531,10 @@
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -494,10 +548,10 @@
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -511,10 +565,10 @@
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -528,10 +582,10 @@
         <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -545,10 +599,10 @@
         <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -562,10 +616,10 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -579,10 +633,10 @@
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -596,10 +650,10 @@
         <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -613,10 +667,10 @@
         <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -630,11 +684,11 @@
         <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>